--- a/docs/StructureDefinition-practitioner-role.xlsx
+++ b/docs/StructureDefinition-practitioner-role.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$56</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1984" uniqueCount="346">
   <si>
     <t>Property</t>
   </si>
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://roadxcore.com/fhir/v1/StructureDefinition/practitioner-role</t>
+    <t>https://www.sehatuk.ae/uae-fhir/r4/StructureDefinition/practitioner-role</t>
   </si>
   <si>
     <t>Version</t>
@@ -39,13 +39,13 @@
     <t>Name</t>
   </si>
   <si>
-    <t>RoadxCorePractitionerRole</t>
+    <t>SehatukCorePractitionerRole</t>
   </si>
   <si>
     <t>Title</t>
   </si>
   <si>
-    <t xml:space="preserve">RoadxCore  Practitioner Role </t>
+    <t xml:space="preserve">SehatukCore  Practitioner Role </t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-19T11:55:47+04:00</t>
+    <t>2022-11-19T09:21:48+04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>RoadxCore Practitioner Role Profile</t>
+    <t>SehatukCore Practitioner Role Profile</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -246,10 +246,6 @@
     <t>A specific set of Roles/Locations/specialties/services that a practitioner may perform at an organization for a period of time.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
-  </si>
-  <si>
     <t>PRD (as one example)</t>
   </si>
   <si>
@@ -266,47 +262,51 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>PractitionerRole.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>PractitionerRole.meta.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>PractitionerRole.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>PractitionerRole.meta.id</t>
-  </si>
-  <si>
     <t>Unique id for inter-element referencing</t>
   </si>
   <si>
@@ -359,10 +359,6 @@
     <t>PractitionerRole.meta.versionId</t>
   </si>
   <si>
-    <t xml:space="preserve">id
-</t>
-  </si>
-  <si>
     <t>Version specific identifier</t>
   </si>
   <si>
@@ -695,7 +691,7 @@
     <t>PractitionerRole.practitioner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://roadxcore.com/fhir/v1/StructureDefinition/practitioner)
+    <t xml:space="preserve">Reference(https://www.sehatuk.ae/uae-fhir/r4/StructureDefinition/practitioner)
 </t>
   </si>
   <si>
@@ -708,10 +704,97 @@
     <t>.player</t>
   </si>
   <si>
+    <t>PractitionerRole.practitioner.id</t>
+  </si>
+  <si>
+    <t>PractitionerRole.practitioner.extension</t>
+  </si>
+  <si>
+    <t>PractitionerRole.practitioner.reference</t>
+  </si>
+  <si>
+    <t>Literal reference, Relative, internal or absolute URL</t>
+  </si>
+  <si>
+    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
+  </si>
+  <si>
+    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
+  </si>
+  <si>
+    <t>Reference.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ref-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+valid-relative-reference:Reference should be a relative reference within message bundle using existing entry.fullUrl {Bundle.type='message' implies matches('((http|https)://([A-Za-z0-9-.:%$]*/)+)(Account|ActivityDefinition|AdverseEvent|AllergyIntolerance|Appointment|AppointmentResponse|AuditEvent|Basic|Binary|BiologicallyDerivedProduct|BodyStructure|Bundle|CapabilityStatement|CarePlan|CareTeam|CatalogEntry|ChargeItem|ChargeItemDefinition|Claim|ClaimResponse|ClinicalImpression|CodeSystem|Communication|CommunicationRequest|CompartmentDefinition|Composition|ConceptMap|Condition|Consent|Contract|Coverage|CoverageEligibilityRequest|CoverageEligibilityResponse|DetectedIssue|Device|DeviceDefinition|DeviceMetric|DeviceRequest|DeviceUseStatement|DiagnosticReport|DocumentManifest|DocumentReference|EffectEvidenceSynthesis|Encounter|Endpoint|EnrollmentRequest|EnrollmentResponse|EpisodeOfCare|EventDefinition|Evidence|EvidenceVariable|ExampleScenario|ExplanationOfBenefit|FamilyMemberHistory|Flag|Goal|GraphDefinition|Group|GuidanceResponse|HealthcareService|ImagingStudy|Immunization|ImmunizationEvaluation|ImmunizationRecommendation|ImplementationGuide|InsurancePlan|Invoice|Library|Linkage|List|Location|Measure|MeasureReport|Media|Medication|MedicationAdministration|MedicationDispense|MedicationKnowledge|MedicationRequest|MedicationStatement|MedicinalProduct|MedicinalProductAuthorization|MedicinalProductContraindication|MedicinalProductIndication|MedicinalProductIngredient|MedicinalProductInteraction|MedicinalProductManufactured|MedicinalProductPackaged|MedicinalProductPharmaceutical|MedicinalProductUndesirableEffect|MessageDefinition|MessageHeader|MolecularSequence|NamingSystem|NutritionOrder|Observation|ObservationDefinition|OperationDefinition|OperationOutcome|Organization|OrganizationAffiliation|Patient|PaymentNotice|PaymentReconciliation|Person|PlanDefinition|Practitioner|PractitionerRole|Procedure|Provenance|Questionnaire|QuestionnaireResponse|RelatedPerson|RequestGroup|ResearchDefinition|ResearchElementDefinition|ResearchStudy|ResearchSubject|RiskAssessment|RiskEvidenceSynthesis|Schedule|SearchParameter|ServiceRequest|Slot|Specimen|SpecimenDefinition|StructureDefinition|StructureMap|Subscription|Substance|SubstanceNucleicAcid|SubstancePolymer|SubstanceProtein|SubstanceReferenceInformation|SubstanceSourceMaterial|SubstanceSpecification|SupplyDelivery|SupplyRequest|Task|TerminologyCapabilities|TestReport|TestScript|ValueSet|VerificationResult|VisionPrescription)/[A-Za-z0-9-.]{1,64}(/_history/[A-Za-z0-9-.]{1,64})?')}</t>
+  </si>
+  <si>
+    <t>PractitionerRole.practitioner.type</t>
+  </si>
+  <si>
+    <t>Type the reference refers to (e.g. "Patient")</t>
+  </si>
+  <si>
+    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
+The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
+  </si>
+  <si>
+    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
+  </si>
+  <si>
+    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+  </si>
+  <si>
+    <t>Reference.type</t>
+  </si>
+  <si>
+    <t>PractitionerRole.practitioner.identifier</t>
+  </si>
+  <si>
+    <t>Logical reference, when literal reference is not known</t>
+  </si>
+  <si>
+    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
+  </si>
+  <si>
+    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
+When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
+Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
+Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
+  </si>
+  <si>
+    <t>Reference.identifier</t>
+  </si>
+  <si>
+    <t>.identifier</t>
+  </si>
+  <si>
+    <t>PractitionerRole.practitioner.display</t>
+  </si>
+  <si>
+    <t>Text alternative for the resource</t>
+  </si>
+  <si>
+    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
+  </si>
+  <si>
+    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
+  </si>
+  <si>
+    <t>Reference.display</t>
+  </si>
+  <si>
     <t>PractitionerRole.organization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://roadxcore.com/fhir/v1/StructureDefinition/provider-organization)
+    <t xml:space="preserve">Reference(https://www.sehatuk.ae/uae-fhir/r4/StructureDefinition/provider-organization)
 </t>
   </si>
   <si>
@@ -722,6 +805,24 @@
   </si>
   <si>
     <t>.scoper</t>
+  </si>
+  <si>
+    <t>PractitionerRole.organization.id</t>
+  </si>
+  <si>
+    <t>PractitionerRole.organization.extension</t>
+  </si>
+  <si>
+    <t>PractitionerRole.organization.reference</t>
+  </si>
+  <si>
+    <t>PractitionerRole.organization.type</t>
+  </si>
+  <si>
+    <t>PractitionerRole.organization.identifier</t>
+  </si>
+  <si>
+    <t>PractitionerRole.organization.display</t>
   </si>
   <si>
     <t>PractitionerRole.code</t>
@@ -1295,7 +1396,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM44"/>
+  <dimension ref="A1:AM56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1304,17 +1405,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.6875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="1" max="1" width="44.69140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.3515625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.1484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.07421875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.06640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="85.47265625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="85.4765625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1323,26 +1424,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.13671875" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="95.22265625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="45.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="95.20703125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="45.0390625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.84375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="44.6875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="29" max="29" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="44.69140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="91.03515625" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="74.71875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="185.46484375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="91.0390625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="74.69921875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="185.46875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="33.05078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1558,16 +1659,16 @@
         <v>71</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>78</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>71</v>
@@ -1575,7 +1676,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1583,31 +1684,31 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G3" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="H3" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -1657,13 +1758,13 @@
         <v>71</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>71</v>
@@ -1686,7 +1787,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1694,28 +1795,28 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G4" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="F4" t="s" s="2">
+      <c r="H4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1766,19 +1867,19 @@
         <v>71</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>71</v>
@@ -1795,7 +1896,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1806,7 +1907,7 @@
         <v>72</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>71</v>
@@ -1818,7 +1919,7 @@
         <v>71</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>95</v>
@@ -1881,7 +1982,7 @@
         <v>72</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>71</v>
@@ -2026,28 +2127,28 @@
         <v>72</v>
       </c>
       <c r="F7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I7" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G7" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I7" t="s" s="2">
+      <c r="J7" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="J7" t="s" s="2">
+      <c r="K7" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2097,19 +2198,19 @@
         <v>71</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>71</v>
@@ -2126,7 +2227,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -2137,28 +2238,28 @@
         <v>72</v>
       </c>
       <c r="F8" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I8" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G8" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H8" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J8" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2208,19 +2309,19 @@
         <v>71</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>71</v>
@@ -2237,7 +2338,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2248,28 +2349,28 @@
         <v>72</v>
       </c>
       <c r="F9" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I9" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G9" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H9" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I9" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J9" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2319,19 +2420,19 @@
         <v>71</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>71</v>
@@ -2348,7 +2449,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -2356,31 +2457,31 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>71</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -2430,7 +2531,7 @@
         <v>71</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>72</v>
@@ -2442,7 +2543,7 @@
         <v>71</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>71</v>
@@ -2459,7 +2560,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2479,19 +2580,19 @@
         <v>71</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -2517,31 +2618,31 @@
         <v>71</v>
       </c>
       <c r="W11" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="X11" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="X11" t="s" s="2">
+      <c r="Y11" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="Y11" t="s" s="2">
+      <c r="Z11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE11" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>72</v>
@@ -2553,7 +2654,7 @@
         <v>71</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>71</v>
@@ -2570,7 +2671,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2590,19 +2691,19 @@
         <v>71</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -2628,31 +2729,31 @@
         <v>71</v>
       </c>
       <c r="W12" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="X12" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="X12" t="s" s="2">
+      <c r="Y12" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="Y12" t="s" s="2">
+      <c r="Z12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE12" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>72</v>
@@ -2664,7 +2765,7 @@
         <v>71</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>71</v>
@@ -2681,7 +2782,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2692,28 +2793,28 @@
         <v>72</v>
       </c>
       <c r="F13" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H13" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="I13" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2763,19 +2864,19 @@
         <v>71</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>71</v>
@@ -2792,7 +2893,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2803,7 +2904,7 @@
         <v>72</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>71</v>
@@ -2815,16 +2916,16 @@
         <v>71</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2850,43 +2951,43 @@
         <v>71</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="X14" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="X14" t="s" s="2">
+      <c r="Y14" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE14" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>164</v>
-      </c>
       <c r="AF14" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>71</v>
@@ -2903,18 +3004,18 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>71</v>
@@ -2926,16 +3027,16 @@
         <v>71</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -2985,25 +3086,25 @@
         <v>71</v>
       </c>
       <c r="AE15" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>71</v>
@@ -3014,11 +3115,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3037,16 +3138,16 @@
         <v>71</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3096,7 +3197,7 @@
         <v>71</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>72</v>
@@ -3114,7 +3215,7 @@
         <v>71</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>71</v>
@@ -3125,7 +3226,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3154,7 +3255,7 @@
         <v>102</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M17" t="s" s="2">
         <v>104</v>
@@ -3207,7 +3308,7 @@
         <v>71</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>72</v>
@@ -3225,7 +3326,7 @@
         <v>71</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>71</v>
@@ -3236,7 +3337,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3253,7 +3354,7 @@
         <v>71</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>71</v>
@@ -3262,16 +3363,16 @@
         <v>101</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="M18" t="s" s="2">
         <v>104</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>71</v>
@@ -3320,7 +3421,7 @@
         <v>71</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>72</v>
@@ -3338,7 +3439,7 @@
         <v>71</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>71</v>
@@ -3349,7 +3450,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3357,32 +3458,32 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G19" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="F19" t="s" s="2">
+      <c r="H19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G19" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J19" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>71</v>
@@ -3431,7 +3532,7 @@
         <v>71</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>72</v>
@@ -3443,24 +3544,24 @@
         <v>71</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="AK19" t="s" s="2">
+      <c r="AL19" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>197</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3468,114 +3569,114 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G20" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="H20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I20" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G20" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J20" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="N20" t="s" s="2">
+      <c r="O20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P20" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="O20" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P20" t="s" s="2">
+      <c r="Q20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="Q20" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R20" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S20" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T20" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U20" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V20" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W20" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X20" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
+      <c r="AK20" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AK20" t="s" s="2">
+      <c r="AL20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>207</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3586,29 +3687,29 @@
         <v>72</v>
       </c>
       <c r="F21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I21" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G21" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J21" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>71</v>
@@ -3657,36 +3758,36 @@
         <v>71</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ21" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="AK21" t="s" s="2">
+      <c r="AL21" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>216</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3694,28 +3795,28 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G22" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="F22" t="s" s="2">
+      <c r="H22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I22" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J22" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3766,36 +3867,36 @@
         <v>71</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AM22" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" hidden="true">
+      <c r="A23" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3803,28 +3904,28 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>71</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>223</v>
+        <v>94</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>224</v>
+        <v>95</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>225</v>
+        <v>96</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3875,25 +3976,25 @@
         <v>71</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>222</v>
+        <v>97</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>226</v>
+        <v>98</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>71</v>
@@ -3904,11 +4005,11 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -3924,23 +4025,21 @@
         <v>71</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>228</v>
+        <v>101</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>229</v>
+        <v>102</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>230</v>
+        <v>103</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>232</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>71</v>
       </c>
@@ -3964,31 +4063,31 @@
         <v>71</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>147</v>
+        <v>71</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>233</v>
+        <v>71</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>234</v>
+        <v>71</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>227</v>
+        <v>108</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>72</v>
@@ -4000,24 +4099,24 @@
         <v>71</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>235</v>
+        <v>71</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>236</v>
+        <v>98</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>215</v>
+        <v>71</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>71</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4025,30 +4124,32 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="F25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G25" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J25" t="s" s="2">
-        <v>228</v>
+        <v>94</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M25" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>71</v>
@@ -4073,13 +4174,13 @@
         <v>71</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>161</v>
+        <v>71</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>240</v>
+        <v>71</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>241</v>
+        <v>71</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>71</v>
@@ -4097,28 +4198,28 @@
         <v>71</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>71</v>
+        <v>228</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>93</v>
+        <v>229</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>242</v>
+        <v>71</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>243</v>
+        <v>179</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>244</v>
+        <v>71</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>71</v>
@@ -4126,7 +4227,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4137,7 +4238,7 @@
         <v>72</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>71</v>
@@ -4146,18 +4247,20 @@
         <v>71</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>246</v>
+        <v>122</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="M26" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>71</v>
@@ -4182,13 +4285,13 @@
         <v>71</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>71</v>
+        <v>234</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>71</v>
+        <v>235</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>71</v>
@@ -4206,36 +4309,36 @@
         <v>71</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>249</v>
+        <v>179</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>250</v>
+        <v>71</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>251</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4246,7 +4349,7 @@
         <v>72</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>71</v>
@@ -4255,18 +4358,20 @@
         <v>71</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>253</v>
+        <v>189</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>71</v>
@@ -4315,25 +4420,25 @@
         <v>71</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>256</v>
+        <v>71</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>71</v>
@@ -4344,7 +4449,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4355,7 +4460,7 @@
         <v>72</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>71</v>
@@ -4364,21 +4469,21 @@
         <v>71</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>259</v>
+        <v>94</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M28" s="2"/>
-      <c r="N28" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>71</v>
       </c>
@@ -4426,25 +4531,25 @@
         <v>71</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>263</v>
+        <v>179</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>71</v>
@@ -4453,9 +4558,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4463,32 +4568,30 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>71</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>268</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>71</v>
@@ -4537,25 +4640,25 @@
         <v>71</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>71</v>
@@ -4566,7 +4669,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4577,7 +4680,7 @@
         <v>72</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>71</v>
@@ -4589,7 +4692,7 @@
         <v>71</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>95</v>
@@ -4652,7 +4755,7 @@
         <v>72</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>71</v>
@@ -4675,7 +4778,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4745,16 +4848,16 @@
         <v>71</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="AC31" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="AE31" t="s" s="2">
         <v>108</v>
@@ -4786,43 +4889,41 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>273</v>
+        <v>71</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>71</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>274</v>
+        <v>224</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>275</v>
+        <v>225</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>187</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>71</v>
       </c>
@@ -4870,25 +4971,25 @@
         <v>71</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>276</v>
+        <v>227</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>71</v>
+        <v>228</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>109</v>
+        <v>229</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>71</v>
@@ -4899,7 +5000,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4910,7 +5011,7 @@
         <v>72</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>71</v>
@@ -4919,18 +5020,20 @@
         <v>71</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>278</v>
+        <v>231</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>71</v>
@@ -4955,13 +5058,13 @@
         <v>71</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>280</v>
+        <v>138</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>281</v>
+        <v>234</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>282</v>
+        <v>235</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>71</v>
@@ -4979,25 +5082,25 @@
         <v>71</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>269</v>
+        <v>179</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>71</v>
@@ -5008,7 +5111,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>283</v>
+        <v>257</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5019,27 +5122,29 @@
         <v>72</v>
       </c>
       <c r="F34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I34" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>71</v>
-      </c>
       <c r="J34" t="s" s="2">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>284</v>
+        <v>238</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>71</v>
@@ -5088,25 +5193,25 @@
         <v>71</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>283</v>
+        <v>241</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>71</v>
@@ -5117,7 +5222,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>286</v>
+        <v>258</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5128,28 +5233,28 @@
         <v>72</v>
       </c>
       <c r="F35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I35" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>71</v>
-      </c>
       <c r="J35" t="s" s="2">
-        <v>287</v>
+        <v>94</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>288</v>
+        <v>244</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>289</v>
+        <v>245</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>290</v>
+        <v>246</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5199,25 +5304,25 @@
         <v>71</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>286</v>
+        <v>247</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>269</v>
+        <v>179</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>71</v>
@@ -5228,7 +5333,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5239,30 +5344,32 @@
         <v>72</v>
       </c>
       <c r="F36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I36" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>71</v>
-      </c>
       <c r="J36" t="s" s="2">
-        <v>287</v>
+        <v>260</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>292</v>
+        <v>261</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>71</v>
       </c>
@@ -5286,13 +5393,13 @@
         <v>71</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>71</v>
+        <v>146</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>71</v>
+        <v>265</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>71</v>
+        <v>266</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>71</v>
@@ -5310,36 +5417,36 @@
         <v>71</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>71</v>
+        <v>267</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" hidden="true">
-      <c r="A37" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5347,28 +5454,28 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>71</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>295</v>
+        <v>270</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>296</v>
+        <v>271</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5395,13 +5502,13 @@
         <v>71</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>71</v>
+        <v>160</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>71</v>
+        <v>272</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>71</v>
+        <v>273</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>71</v>
@@ -5419,7 +5526,7 @@
         <v>71</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>294</v>
+        <v>269</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>72</v>
@@ -5431,16 +5538,16 @@
         <v>71</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>71</v>
+        <v>274</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>71</v>
+        <v>276</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>71</v>
@@ -5448,7 +5555,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5459,25 +5566,25 @@
         <v>72</v>
       </c>
       <c r="F38" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I38" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>71</v>
-      </c>
       <c r="J38" t="s" s="2">
-        <v>83</v>
+        <v>278</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>95</v>
+        <v>279</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>96</v>
+        <v>280</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5528,40 +5635,40 @@
         <v>71</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>97</v>
+        <v>277</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>98</v>
+        <v>281</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>71</v>
+        <v>282</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>71</v>
+        <v>283</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -5580,17 +5687,15 @@
         <v>71</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>101</v>
+        <v>285</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>102</v>
+        <v>286</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>71</v>
@@ -5639,7 +5744,7 @@
         <v>71</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>108</v>
+        <v>284</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>72</v>
@@ -5651,13 +5756,13 @@
         <v>71</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>71</v>
+        <v>288</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>98</v>
+        <v>289</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>71</v>
@@ -5668,11 +5773,11 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>273</v>
+        <v>71</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -5685,25 +5790,23 @@
         <v>71</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>101</v>
+        <v>291</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>187</v>
+        <v>294</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>71</v>
@@ -5752,7 +5855,7 @@
         <v>71</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>72</v>
@@ -5764,13 +5867,13 @@
         <v>71</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>180</v>
+        <v>295</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>71</v>
@@ -5781,7 +5884,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5789,10 +5892,10 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>71</v>
@@ -5804,15 +5907,17 @@
         <v>71</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>83</v>
+        <v>297</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>299</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>300</v>
+      </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>71</v>
@@ -5861,25 +5966,25 @@
         <v>71</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>98</v>
+        <v>301</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>71</v>
@@ -5890,7 +5995,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5901,7 +6006,7 @@
         <v>72</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>71</v>
@@ -5913,13 +6018,13 @@
         <v>71</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>209</v>
+        <v>94</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>304</v>
+        <v>95</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>305</v>
+        <v>96</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5970,25 +6075,25 @@
         <v>71</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>303</v>
+        <v>97</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>269</v>
+        <v>98</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>71</v>
@@ -5999,18 +6104,18 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>71</v>
@@ -6022,15 +6127,17 @@
         <v>71</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>307</v>
+        <v>102</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="M43" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>71</v>
@@ -6079,25 +6186,25 @@
         <v>71</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>306</v>
+        <v>108</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>269</v>
+        <v>98</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>71</v>
@@ -6108,11 +6215,11 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>71</v>
+        <v>305</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6125,23 +6232,25 @@
         <v>71</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>310</v>
+        <v>101</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="N44" t="s" s="2">
-        <v>313</v>
+        <v>186</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>71</v>
@@ -6190,7 +6299,7 @@
         <v>71</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>72</v>
@@ -6202,23 +6311,1343 @@
         <v>71</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" hidden="true">
+      <c r="A45" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P45" s="2"/>
+      <c r="Q45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" hidden="true">
+      <c r="A46" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P46" s="2"/>
+      <c r="Q46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" hidden="true">
+      <c r="A47" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P47" s="2"/>
+      <c r="Q47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" hidden="true">
+      <c r="A48" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" hidden="true">
+      <c r="A49" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" hidden="true">
+      <c r="A50" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK50" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AL44" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AM44" t="s" s="2">
+      <c r="AL50" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" hidden="true">
+      <c r="A51" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" hidden="true">
+      <c r="A52" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AM56" t="s" s="2">
         <v>71</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM44">
+  <autoFilter ref="A1:AM56">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6228,7 +7657,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI43">
+  <conditionalFormatting sqref="A2:AI55">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-practitioner-role.xlsx
+++ b/docs/StructureDefinition-practitioner-role.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-19T09:21:48+04:00</t>
+    <t>2022-11-19T09:53:21+04:00</t>
   </si>
   <si>
     <t>Publisher</t>
